--- a/Extraccion/outputs/Registro_Proyectos_Actividades_POAI_2024.xlsx
+++ b/Extraccion/outputs/Registro_Proyectos_Actividades_POAI_2024.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,26 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Código BPIN</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Código PI</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Ejecutado</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RECURSOS</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Hoja</t>
         </is>
       </c>
@@ -460,7 +480,21 @@
       <c r="B2" t="n">
         <v>2024</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>2021003760259</v>
+      </c>
+      <c r="D2" t="n">
+        <v>101967</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2320000000</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Juegos_Pro_2024</t>
         </is>
@@ -475,7 +509,21 @@
       <c r="B3" t="n">
         <v>2024</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>2021003760319</v>
+      </c>
+      <c r="D3" t="n">
+        <v>102032</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8823360000</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Adultos_Pro_2024</t>
         </is>
@@ -490,7 +538,21 @@
       <c r="B4" t="n">
         <v>2024</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>2021003760276</v>
+      </c>
+      <c r="D4" t="n">
+        <v>102030</v>
+      </c>
+      <c r="E4" t="n">
+        <v>768928351</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>AFA_Pro_2024</t>
         </is>
@@ -505,7 +567,21 @@
       <c r="B5" t="n">
         <v>2024</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>2021003760318</v>
+      </c>
+      <c r="D5" t="n">
+        <v>102031</v>
+      </c>
+      <c r="E5" t="n">
+        <v>598910000</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>Ed_Terciaria_Pro_2024</t>
         </is>
@@ -520,7 +596,21 @@
       <c r="B6" t="n">
         <v>2024</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>2021003760331</v>
+      </c>
+      <c r="D6" t="n">
+        <v>102049</v>
+      </c>
+      <c r="E6" t="n">
+        <v>739629408</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>Convivencia_Pro_2024</t>
         </is>
@@ -535,7 +625,21 @@
       <c r="B7" t="n">
         <v>2024</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>2021003760147</v>
+      </c>
+      <c r="D7" t="n">
+        <v>101752</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3053783278</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Gestión_Escolar_Pro_2024</t>
         </is>
@@ -550,7 +654,21 @@
       <c r="B8" t="n">
         <v>2024</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>2024003760117</v>
+      </c>
+      <c r="D8" t="n">
+        <v>102505</v>
+      </c>
+      <c r="E8" t="n">
+        <v>452000000</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>Gestión_Escolar_2_Pro_2024</t>
         </is>
@@ -565,7 +683,21 @@
       <c r="B9" t="n">
         <v>2024</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>2021003760136</v>
+      </c>
+      <c r="D9" t="n">
+        <v>101765</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3949756074</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>Transversales_Pro_2024</t>
         </is>
@@ -581,7 +713,21 @@
       <c r="B10" t="n">
         <v>2024</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>2024003760111</v>
+      </c>
+      <c r="D10" t="n">
+        <v>102492</v>
+      </c>
+      <c r="E10" t="n">
+        <v>513400000</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>Convivencia_2_Pro_2024</t>
         </is>
@@ -597,7 +743,21 @@
       <c r="B11" t="n">
         <v>2024</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>2021003760148</v>
+      </c>
+      <c r="D11" t="n">
+        <v>102461</v>
+      </c>
+      <c r="E11" t="n">
+        <v>23100000</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>PILEO_2_Pro_2024</t>
         </is>
@@ -612,7 +772,21 @@
       <c r="B12" t="n">
         <v>2024</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>2021003760215</v>
+      </c>
+      <c r="D12" t="n">
+        <v>101891</v>
+      </c>
+      <c r="E12" t="n">
+        <v>451488800</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>Ed_Inicial_Pro_2024</t>
         </is>
@@ -627,7 +801,21 @@
       <c r="B13" t="n">
         <v>2024</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>2024003760137</v>
+      </c>
+      <c r="D13" t="n">
+        <v>102489</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93000000</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>Ed_Inicial_2_Pro_2024</t>
         </is>
@@ -642,7 +830,21 @@
       <c r="B14" t="n">
         <v>2024</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>2021003760231</v>
+      </c>
+      <c r="D14" t="n">
+        <v>101904</v>
+      </c>
+      <c r="E14" t="n">
+        <v>256721600</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>Normales_Pro_2024</t>
         </is>
@@ -657,7 +859,21 @@
       <c r="B15" t="n">
         <v>2024</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>2024003760136</v>
+      </c>
+      <c r="D15" t="n">
+        <v>102488</v>
+      </c>
+      <c r="E15" t="n">
+        <v>36000000</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>Normales_2_Pro_2024</t>
         </is>
@@ -672,7 +888,21 @@
       <c r="B16" t="n">
         <v>2024</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>2021003760137</v>
+      </c>
+      <c r="D16" t="n">
+        <v>101763</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2394802959</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>PEER_Pro_2024</t>
         </is>
@@ -687,7 +917,21 @@
       <c r="B17" t="n">
         <v>2024</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>2024003760119</v>
+      </c>
+      <c r="D17" t="n">
+        <v>102510</v>
+      </c>
+      <c r="E17" t="n">
+        <v>303200000</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>Emprendimiento_Pro_2024</t>
         </is>
@@ -702,7 +946,21 @@
       <c r="B18" t="n">
         <v>2024</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>2021003760148</v>
+      </c>
+      <c r="D18" t="n">
+        <v>101777</v>
+      </c>
+      <c r="E18" t="n">
+        <v>677360000</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>PILEO_Pro_2024</t>
         </is>
@@ -718,7 +976,21 @@
       <c r="B19" t="n">
         <v>2024</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>2021003760138</v>
+      </c>
+      <c r="D19" t="n">
+        <v>101889</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1263634193</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>Emprendimiento_2_Pro_2024</t>
         </is>
@@ -733,7 +1005,21 @@
       <c r="B20" t="n">
         <v>2024</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>2021003760256</v>
+      </c>
+      <c r="D20" t="n">
+        <v>101950</v>
+      </c>
+      <c r="E20" t="n">
+        <v>481206000</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>Pruebas_SABER_Pro_2024</t>
         </is>
@@ -748,7 +1034,21 @@
       <c r="B21" t="n">
         <v>2024</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>2021003760256</v>
+      </c>
+      <c r="D21" t="n">
+        <v>102491</v>
+      </c>
+      <c r="E21" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>Familia_Escuela_Pro_2024</t>
         </is>
@@ -763,7 +1063,21 @@
       <c r="B22" t="n">
         <v>2024</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>2021003760322</v>
+      </c>
+      <c r="D22" t="n">
+        <v>102039</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2056643992</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>TIC_Pro_2024</t>
         </is>
@@ -778,7 +1092,21 @@
       <c r="B23" t="n">
         <v>2024</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>2021003760242</v>
+      </c>
+      <c r="D23" t="n">
+        <v>101921</v>
+      </c>
+      <c r="E23" t="n">
+        <v>632093107</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>Cátedra_Afro_Pro_2024</t>
         </is>
@@ -793,7 +1121,21 @@
       <c r="B24" t="n">
         <v>2024</v>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>2024003760134</v>
+      </c>
+      <c r="D24" t="n">
+        <v>102490</v>
+      </c>
+      <c r="E24" t="n">
+        <v>54000000</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>Cátedra_Afro_2_Pro_2024</t>
         </is>
@@ -808,7 +1150,21 @@
       <c r="B25" t="n">
         <v>2024</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>2021003760321</v>
+      </c>
+      <c r="D25" t="n">
+        <v>102038</v>
+      </c>
+      <c r="E25" t="n">
+        <v>452752053</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>SEIP_Pro_2024</t>
         </is>
@@ -938,7 +1294,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1Akq4R1C9myg9j_OVdkgc3wIXQeOGWO0T&amp;usp=drive_fs</t>
+          <t>https://drive.google.com/open?id=1Ahce7Ld5tJQ6q4hcxRcf2Di_HSCd6BRK&amp;usp=drive_fs</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -993,7 +1349,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/open?id=1Akq4R1C9myg9j_OVdkgc3wIXQeOGWO0T&amp;usp=drive_fs</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -1052,7 +1412,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1AnpPm7r2CgHLokJ8A7Z4RzmJvtV9j8Wf?usp=sharing</t>
+          <t>https://drive.google.com/drive/folders/1And8NYJIPjgKI7BPBDAhTUnekdHh_1jc?usp=sharing</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1109,7 +1469,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1B3pXVxE7BlO99ArUTHbXocrRjTSN8e1F&amp;usp=drive_fs</t>
+          <t>https://drive.google.com/drive/folders/1AnpPm7r2CgHLokJ8A7Z4RzmJvtV9j8Wf?usp=sharing</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1166,7 +1526,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1B2vC8_5pMt_5oALNpmyBVE0hUl5eGRIE&amp;usp=drive_fs</t>
+          <t>https://drive.google.com/open?id=1B3pXVxE7BlO99ArUTHbXocrRjTSN8e1F&amp;usp=drive_fs</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1229,7 +1589,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1B0muBefAUvdTtJSW9CqUq0E4OYGPFfZU&amp;usp=drive_fs</t>
+          <t>https://drive.google.com/open?id=1B2vC8_5pMt_5oALNpmyBVE0hUl5eGRIE&amp;usp=drive_fs</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1292,7 +1652,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1AyljdODoda_tIJZtx1hmiOjIlkdZ8LCF&amp;usp=drive_fs</t>
+          <t>https://drive.google.com/open?id=1B0muBefAUvdTtJSW9CqUq0E4OYGPFfZU&amp;usp=drive_fs</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1353,7 +1713,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1AsijrDuzf4NnHAcK8RoTWE1WGTIoTKVO&amp;usp=drive_fs</t>
+          <t>https://drive.google.com/open?id=1AyljdODoda_tIJZtx1hmiOjIlkdZ8LCF&amp;usp=drive_fs</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1415,7 +1775,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1ArNx9USCOzU_zu_dUc9YH1QcJEgJkBl4&amp;usp=drive_fs</t>
+          <t>https://drive.google.com/open?id=1AsijrDuzf4NnHAcK8RoTWE1WGTIoTKVO&amp;usp=drive_fs</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1476,7 +1836,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1BA5-9P9J82EbPNyAfsxvnClztEnBYN7X&amp;usp=drive_fs</t>
+          <t>https://drive.google.com/open?id=1ArNx9USCOzU_zu_dUc9YH1QcJEgJkBl4&amp;usp=drive_fs</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1533,7 +1893,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1BCyOccPiNDfUXQkVGcSrEK5j9VzCcXdt&amp;usp=drive_fs</t>
+          <t>https://drive.google.com/open?id=1BA5-9P9J82EbPNyAfsxvnClztEnBYN7X&amp;usp=drive_fs</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1596,7 +1956,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/open?id=1BCyOccPiNDfUXQkVGcSrEK5j9VzCcXdt&amp;usp=drive_fs</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>ACTIVIDAD 1: Se instaló 1 pasacalles en cada uno de los 34 municipios no oficiales del Valle del Cauca.</t>
@@ -1651,7 +2015,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1B_W0WruiR5RS17N3Y-Ff_SMjPzQMCRIw&amp;usp=drive_fs</t>
+          <t>https://drive.google.com/open?id=1BJ7bBmwasVI04SE3LoD3k8qJaMEMyeK8&amp;usp=drive_fs</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1708,7 +2072,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1BVWajBaYzyc0gobzC3h2XacNTk-PdSJf&amp;usp=drive_fs</t>
+          <t>https://drive.google.com/open?id=1B_W0WruiR5RS17N3Y-Ff_SMjPzQMCRIw&amp;usp=drive_fs</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1765,7 +2129,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1BOXL3gK_Zkh6pady263Wj6C5xQNZVaxk&amp;usp=drive_fs</t>
+          <t>https://drive.google.com/open?id=1BVWajBaYzyc0gobzC3h2XacNTk-PdSJf&amp;usp=drive_fs</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1827,7 +2191,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1BNK7xj5IVVOtfUaTg7arqKlNwoyt6ciQ&amp;usp=drive_fs</t>
+          <t>https://drive.google.com/open?id=1BOXL3gK_Zkh6pady263Wj6C5xQNZVaxk&amp;usp=drive_fs</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1882,7 +2246,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/open?id=1BNK7xj5IVVOtfUaTg7arqKlNwoyt6ciQ&amp;usp=drive_fs</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -1935,7 +2303,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/open?id=1BdV6-16kiWbKHCO33gUvzpM8CVAOQ-3o&amp;usp=drive_fs</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -1990,7 +2362,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1BoDfW5FgSpXsOY9BZza7HJO3SICZv81G&amp;usp=drive_fs</t>
+          <t>https://drive.google.com/open?id=1BgzmahTF0b1DPNfQK6_q-qQRo4JHE47w&amp;usp=drive_fs</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2047,7 +2419,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1BkA-mtWHwMmOb5rTo7rx7cdPzAAKi77F&amp;usp=drive_fs</t>
+          <t>https://drive.google.com/open?id=1BoDfW5FgSpXsOY9BZza7HJO3SICZv81G&amp;usp=drive_fs</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2104,7 +2476,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1BiQ6edsf35spUYCX4vIvg_zHAwpRH_13&amp;usp=drive_fs</t>
+          <t>https://drive.google.com/open?id=1BkA-mtWHwMmOb5rTo7rx7cdPzAAKi77F&amp;usp=drive_fs</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2165,7 +2537,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1BrZjOYwoKvhNWW1EnoJhx5j8JJgtTXAp&amp;usp=drive_fs</t>
+          <t>https://drive.google.com/open?id=1BiQ6edsf35spUYCX4vIvg_zHAwpRH_13&amp;usp=drive_fs</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2222,7 +2594,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1BowIsNjyT_no0zaJ2XwN86vjxgKHHhnh&amp;usp=drive_fs</t>
+          <t>https://drive.google.com/open?id=1BrZjOYwoKvhNWW1EnoJhx5j8JJgtTXAp&amp;usp=drive_fs</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2281,7 +2653,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/open?id=1BowIsNjyT_no0zaJ2XwN86vjxgKHHhnh&amp;usp=drive_fs</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -2336,7 +2712,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1BwmVGz7j6jeMCndv52oNWJruPHWYx8qF?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1xPRlnYar1ccKGe5R_o7tVBmj0GgXJgrM?usp=drive_link</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2393,7 +2769,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1C2XyBYKj_UQ6_L-mnQOm8VNGOrzWFa-Y?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1BwmVGz7j6jeMCndv52oNWJruPHWYx8qF?usp=drive_link</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2450,7 +2826,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1C1o4TWqTC6Oav4PNlm2Oy9hM_lpdcN3G?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1C2XyBYKj_UQ6_L-mnQOm8VNGOrzWFa-Y?usp=drive_link</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2501,7 +2877,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1C-l53qU70pelbPRDRZqAJXLWdNFUQ6ia?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1C1o4TWqTC6Oav4PNlm2Oy9hM_lpdcN3G?usp=drive_link</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2552,7 +2928,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1C2rrmMlXgPUnese4V_xLp5w_Yvju8COf?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1C-l53qU70pelbPRDRZqAJXLWdNFUQ6ia?usp=drive_link</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2603,7 +2979,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1C2ZRvbmXr4lyDKseBhiabjAVzm3KhvV5?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1C2rrmMlXgPUnese4V_xLp5w_Yvju8COf?usp=drive_link</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2654,7 +3030,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1C8g9eMqMMEdxH1eKFEv5jWddxFOCyjRw?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1C2ZRvbmXr4lyDKseBhiabjAVzm3KhvV5?usp=drive_link</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2711,7 +3087,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1C50UvQLexhwthb5x0xqN7JcoPb1uN1i5?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1C8g9eMqMMEdxH1eKFEv5jWddxFOCyjRw?usp=drive_link</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2768,7 +3144,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1C8tnIZFLIWPariRail9N8vBoB2aQzC_k?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1C50UvQLexhwthb5x0xqN7JcoPb1uN1i5?usp=drive_link</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2829,7 +3205,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1CFWH0gXEbVIiMCcyWtvr6ja52yeZmYh_?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1C8tnIZFLIWPariRail9N8vBoB2aQzC_k?usp=drive_link</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2884,7 +3260,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1CFWH0gXEbVIiMCcyWtvr6ja52yeZmYh_?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -2939,7 +3319,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1CI5k27hXtMbWhmN_KDRSnFZImiKBGmiy?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1CImy8rOiPlROUjQX9mYghMlo1q3TA5nn?usp=drive_link</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2996,7 +3376,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1CHnvL1E1zrJDXOv1n9DGxaQ02faw6FxO?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1CI5k27hXtMbWhmN_KDRSnFZImiKBGmiy?usp=drive_link</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3051,7 +3431,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1CHnvL1E1zrJDXOv1n9DGxaQ02faw6FxO?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -3105,7 +3489,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1C_qqKnyhBF6lVfEX9nari86f9Filwa4N?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1CP5jTO9TbDGTYhgjRDW0XbqKB6av2YFc?usp=drive_link</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3148,7 +3532,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1CXI_GQqsz-0vZKOeoLUJobJqM5CRILb0?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1C_qqKnyhBF6lVfEX9nari86f9Filwa4N?usp=drive_link</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3203,7 +3587,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1CRv4rWpLz9q11_b3-Ie2zsBK8gfUtsIN?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1CXI_GQqsz-0vZKOeoLUJobJqM5CRILb0?usp=drive_link</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3258,7 +3642,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1CiIuKedjgDytLb8J_i9NNtMYyLi_4uwI?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1CRv4rWpLz9q11_b3-Ie2zsBK8gfUtsIN?usp=drive_link</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3315,7 +3699,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1CyZunzj3mWh_d2FKhzeyHs-5qyPq09jX?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1CiIuKedjgDytLb8J_i9NNtMYyLi_4uwI?usp=drive_link</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3372,7 +3756,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1CSnTTBeiGxO6NZeEdKzn5FuiUGPTGEjx?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1CyZunzj3mWh_d2FKhzeyHs-5qyPq09jX?usp=drive_link</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3429,7 +3813,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1Ca9XtLe_yuFKVoTxW3DUWPBzm0DSgnP1?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1CSnTTBeiGxO6NZeEdKzn5FuiUGPTGEjx?usp=drive_link</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3486,7 +3870,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1D26EbQw8QkP0JBqXWwtTNBYqJs11stb8?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1Ca9XtLe_yuFKVoTxW3DUWPBzm0DSgnP1?usp=drive_link</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3547,7 +3931,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1CU5RsmC_J4PnEh8FQKJ-hUXMokIwLp43?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1D26EbQw8QkP0JBqXWwtTNBYqJs11stb8?usp=drive_link</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3608,7 +3992,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1CTFyEFrdeirQTazL1-0L2NfJqOZ8XlbX?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1CU5RsmC_J4PnEh8FQKJ-hUXMokIwLp43?usp=drive_link</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3663,7 +4047,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1CgNaZaqbgiXQzWu5h2TcN46M0rqJ9YtD?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1CTFyEFrdeirQTazL1-0L2NfJqOZ8XlbX?usp=drive_link</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3722,7 +4106,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1Ce2F2Hjob2Q9iR4bmm-8vmNz0EVk7ajx?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1CgNaZaqbgiXQzWu5h2TcN46M0rqJ9YtD?usp=drive_link</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3775,7 +4159,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1Ce2F2Hjob2Q9iR4bmm-8vmNz0EVk7ajx?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -3834,7 +4222,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1D5DWZ60bMS_yxw2Jo4Wb17c1tfBsuCgi?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1D53xftYXzmkn53TP9EoyRCuQpvkSOZ7D?usp=drive_link</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3890,7 +4278,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1D5DWZ60bMS_yxw2Jo4Wb17c1tfBsuCgi?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -3946,7 +4338,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1ANPzw3Wm7Wp3FwVF7p3JQMx6mr7P_AgE?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1AHbSvht0GkEjvsjsS_DEfClA_FpUlbrM?usp=drive_link</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4002,7 +4394,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1AKksgiglP5fNDLMhi55C8oCJ3NbjeIZN?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1ANPzw3Wm7Wp3FwVF7p3JQMx6mr7P_AgE?usp=drive_link</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4055,7 +4447,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1AKksgiglP5fNDLMhi55C8oCJ3NbjeIZN?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -4108,7 +4504,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1ARG5pGx8FG3HfLyHY742hTXe6S9vxA34?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -4163,7 +4563,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1ATRnRG9fccuAcl8JkqDeFwdXqOExWWf6?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1AT-xBwAOgx8JeGLVy1uUszLb4R_ueA3j?usp=drive_link</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4224,7 +4624,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1ATMqLLT6Da6iRnB1jk7wTQ1_Bp1vk3C4?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1ATRnRG9fccuAcl8JkqDeFwdXqOExWWf6?usp=drive_link</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4279,7 +4679,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1ATMqLLT6Da6iRnB1jk7wTQ1_Bp1vk3C4?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -4332,7 +4736,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1AZGzISQVdPUgaU5uDd1ZE4D1yuuCbztZ?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -4382,7 +4790,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1AalogwVcSEzwWB74_lsFAg28xGlILhAz?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1Aa3PsA09-j8RfHrBVgRPWNCIKcgcGcMd?usp=drive_link</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4440,7 +4848,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1AeMcaKXSk5MY5uYnQNrksdkFFqR2AL5l?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1AalogwVcSEzwWB74_lsFAg28xGlILhAz?usp=drive_link</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4500,7 +4908,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1AeFMlgEdj9U7EBdlUzS6TjcQtI9NewW8?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1AeMcaKXSk5MY5uYnQNrksdkFFqR2AL5l?usp=drive_link</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4560,7 +4968,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1AiLLMrEpiP9bb4mIno18tTGf0rS2RqWd?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1AeFMlgEdj9U7EBdlUzS6TjcQtI9NewW8?usp=drive_link</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4624,7 +5032,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1AhX611s4swF798TZQ4vf2j2MiFyRowHF?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1AiLLMrEpiP9bb4mIno18tTGf0rS2RqWd?usp=drive_link</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4684,7 +5092,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1AfyabYeo1W3EAomiRXXUgqQdcwMqtAza?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1AhX611s4swF798TZQ4vf2j2MiFyRowHF?usp=drive_link</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4744,7 +5152,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1AqWAwBL-voHDbIGs0VNNRTrZwrbeCPrw?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1AfyabYeo1W3EAomiRXXUgqQdcwMqtAza?usp=drive_link</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4800,7 +5208,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1ApqEZcUsGW_jeykzaThzqFwIczs892Nt?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1AqWAwBL-voHDbIGs0VNNRTrZwrbeCPrw?usp=drive_link</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4860,7 +5268,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1AoFyhG4NkgJGnNvtj0bAoBP5G19zfWhW?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1ApqEZcUsGW_jeykzaThzqFwIczs892Nt?usp=drive_link</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4920,7 +5328,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1Aia_wk0ck5TWw_Nkukr4KMZSkL_EzerL?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1AoFyhG4NkgJGnNvtj0bAoBP5G19zfWhW?usp=drive_link</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4981,7 +5389,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1AsYqlvUgmekGajuBbekK5oHJf1U59Pj1?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1Aia_wk0ck5TWw_Nkukr4KMZSkL_EzerL?usp=drive_link</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5040,7 +5448,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1AsYqlvUgmekGajuBbekK5oHJf1U59Pj1?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -5096,7 +5508,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1Aw0-4UF67pSzgjzdyNfrRtRTN377ACOv?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1At50l7oHbT63Kc3FUMrtLqFvuicyJDXw?usp=drive_link</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5156,7 +5568,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1Aw0-4UF67pSzgjzdyNfrRtRTN377ACOv?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -5216,7 +5632,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1B7SzBM6QPxPxsTXPdyV2rWFpm7O50cxC?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1AzKp9_77MVHijC6SJO6h_1JvuV1-zH4X?usp=drive_link</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5278,7 +5694,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1B7Kz0IT-etQq33F4VDI9nes5HENlsTYb?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1B7SzBM6QPxPxsTXPdyV2rWFpm7O50cxC?usp=drive_link</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -5335,7 +5751,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1B5sIMZ7FPUPidu4hYgDyS6TOfE3RgH5i?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1B7Kz0IT-etQq33F4VDI9nes5HENlsTYb?usp=drive_link</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5393,7 +5809,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1B3MBliy2fttT6AATDsyNG3PsQKNeTe0L?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1B5sIMZ7FPUPidu4hYgDyS6TOfE3RgH5i?usp=drive_link</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5451,7 +5867,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1B2KxvV3kOQ_R56RIOcEuCb-ApRrrpr20?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1B3MBliy2fttT6AATDsyNG3PsQKNeTe0L?usp=drive_link</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5509,7 +5925,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1B262zUfCQsgEX7cNlXnh3l9UFZT7a_7E?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1B2KxvV3kOQ_R56RIOcEuCb-ApRrrpr20?usp=drive_link</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5565,7 +5981,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1B262zUfCQsgEX7cNlXnh3l9UFZT7a_7E?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -5621,7 +6041,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1BBoKjpsa9w06CJJ7FN-XKASTdj_H_1TL?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1BGj026LSC_j8WwdtHBIHiWgxrF_8ze8e?usp=drive_link</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5679,7 +6099,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1BJG5D1xKnyjdIBsmqEQG7hAnw14Tj6uw?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1BBoKjpsa9w06CJJ7FN-XKASTdj_H_1TL?usp=drive_link</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5742,7 +6162,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1BI3RRspG0M5Qy6kqiDOdNJAN8Nw0tYqJ?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1BJG5D1xKnyjdIBsmqEQG7hAnw14Tj6uw?usp=drive_link</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5801,7 +6221,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1BXM7NzJRQtfmTBVlf9TRd6FIkfyE9fmX?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1BI3RRspG0M5Qy6kqiDOdNJAN8Nw0tYqJ?usp=drive_link</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5864,7 +6284,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1BQkkT8g54Hy-m4-SAZlAfNpQNAvLQ3Ml?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1BXM7NzJRQtfmTBVlf9TRd6FIkfyE9fmX?usp=drive_link</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5927,7 +6347,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1BQEPjJnLDIpv5xHCtAkRwuF8sMlQavV0?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1BQkkT8g54Hy-m4-SAZlAfNpQNAvLQ3Ml?usp=drive_link</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5986,7 +6406,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1BMCsoeNf3a4E6rygoHqbZT3lIb64rhfB?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1BQEPjJnLDIpv5xHCtAkRwuF8sMlQavV0?usp=drive_link</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -6043,7 +6463,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1BMCsoeNf3a4E6rygoHqbZT3lIb64rhfB?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -6097,7 +6521,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1DJ3WzHDt0qJYqCEPVDNuYLjzMykmtSgP?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>Pago de inscripción de los estudiantes de los municipios no certificados del Valle del Cauca a la prueba saber 11 calendario A 2024</t>
@@ -6150,7 +6578,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1DRH9Z-iwvewhrmbE1N5tWI28Lu3-w_QX?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -6206,7 +6638,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1Dc34VLM49CNKL0XA9catoyCR8FJzHIcJ?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1DUgfJRa9F19GkujD1u92hRh7XItsuDEa?usp=drive_link</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -6264,7 +6696,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1DeBkG0wC-CRMQ_frOwxicxqShdupbvRd?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1Dc34VLM49CNKL0XA9catoyCR8FJzHIcJ?usp=drive_link</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6322,7 +6754,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1DosjFMiPto_uAjsVX38eE6RwvfUKAV6K?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1DeBkG0wC-CRMQ_frOwxicxqShdupbvRd?usp=drive_link</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6380,7 +6812,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1DlLFa8cyxlfaeuc6u-dHTkfYBU6BhNdY?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1DosjFMiPto_uAjsVX38eE6RwvfUKAV6K?usp=drive_link</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6438,7 +6870,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1DhcTXLYEVEfvBIBXfR8Qeg0pCxqjaM3b?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1DlLFa8cyxlfaeuc6u-dHTkfYBU6BhNdY?usp=drive_link</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6494,7 +6926,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1DhcTXLYEVEfvBIBXfR8Qeg0pCxqjaM3b?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -6550,7 +6986,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1Dz83qxAvnNYF7TOL82wotk587LfYhkfM?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1Dye5wmYcqAq0wn-3LsJlBQdY0i9nPo6D?usp=drive_link</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6606,7 +7042,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1E-nwPgwEIexl70DRsSPfNcO5YIhOGfW9?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1Dz83qxAvnNYF7TOL82wotk587LfYhkfM?usp=drive_link</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -6715,7 +7151,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1E-nwPgwEIexl70DRsSPfNcO5YIhOGfW9?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -6768,7 +7208,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1E0_jt1PCRXo0qb9bLDDTypKbGRcWYrYS?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -6827,7 +7271,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1E6p4otjbEizFYBGsFiF-xID7N3U_fYpz?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1E2UPDCaJcDLfwoeM8hKHNjRV36ki4xBw?usp=drive_link</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -6889,7 +7333,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1E6otb_tuLTXiaHja5sAnimbT13YmlzVH?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1E6p4otjbEizFYBGsFiF-xID7N3U_fYpz?usp=drive_link</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -7076,7 +7520,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1E6otb_tuLTXiaHja5sAnimbT13YmlzVH?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>CONTRATO INTERADMINISTRATIVO 1.210.30-12.19.8324 DE 2024 CON ASOCIACIÓN DE AUTORIDADES TRADICIONALES INDÍGENAS CONSEJERÍA DE GOBIERNO PROPIO DEL PUEBLO NASA DEL VALLE DEL CAUCA 

--- a/Extraccion/outputs/Registro_Proyectos_Actividades_POAI_2024.xlsx
+++ b/Extraccion/outputs/Registro_Proyectos_Actividades_POAI_2024.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Info_Proyectos" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Actividades" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Metas" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,7 +438,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nombre del Proyecto</t>
+          <t>Nombre_Proyecto</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -1252,7 +1253,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Nombre del Proyecto</t>
+          <t>Nombre_Proyecto</t>
         </is>
       </c>
     </row>
@@ -7545,4 +7546,664 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hoja</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre_Proyecto</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Meta</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Descripción</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Juegos_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Contribución al desarrollo de los juegos del sector educativo en los municipios no certificados del Valle del Cauca</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Financiar  14.000 estudiantes, directivos docentes, docentes y administrativos de las 149 instituciones educativas en los juegos supérate intercolegiados y en los juegos del magisterio, en los 34 municipios no certificados del valle del cauca, anualmente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Adultos_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Consolidación de la Educación flexible de jóvenes en extraedad y adultos de los municipios no certificados del Valle del Cauca</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Beneficiar a 28.000 jóvenes en extra edad y adultos con la implementación de un modelo educativo flexible en las instituciones educativas oficiales de los  municipios no certificados, durante el periodo de Gobierno</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AFA_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Asesoria a las instituciones educativas rurales, para el fortalecimiento de las Asociaciones de Futuros Agricultores AFA en el Valle del Cauca</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Asistir técnicamente a 2000 pequeños productores en asociatividad rural y cooperativismo, en el valle del cauca durante el periodo de gobierno</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ed_Terciaria_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Apoyo a la articulación de la educación media con la educación terciaria, en el Valle del Cauca</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Meta de Producto 1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Vincular a 2000 estudiantes y bachilleres, de los 34 municipios no certificados del valle del cauca, a procesos de orientación, acceso y permanencia en la educación superrior(técnicos profesionales, tecnólogos y profesionales) para la movilidad educativa, que contribuya al cierre de brechas de capital humano, durante el periodo de Gobierno</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Convivencia_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fortalecimiento de los comités departamentales de convivencia en la prevención de la violencia contra la mujer y diferentes violencias que se presentan en las instituciones educativas del Valle del Cauca</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Asistir técnicamente a 7 municipios en el desarrollo de acciones de intervención comunitaria en temas de fortalecimiento del tejido social y construcción de escenarios comunitarios protectores de derechos, para la prevención de violencia y la promoción de paz urbana o rural, anualmente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Gestión_Escolar_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mejoramiento de los procesos de Gestión Escolar en las 149 Instituciones Educativas de los Municipios no Certificados del Valle del Cauca</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Asitir técnicamente a 149 instituciones educativas oficiales  de los municipios no certificados del valle del cauca, en gestion escolar, para el mejoramientos insiticuional anualmente</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Gestión_Escolar_2_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mejoramiento de la gestión escolar en las instituciones educativas oficiales de los municipios no certificados del departamenteo del valle del cauca.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Meta de Producto 1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Asistir a las 149 instituciones educativas oficiales, de los municipios no certificados del valle del cauca, con procesos de innovación educativa e investigación en el funcionamiento de ambientes tecnopedagógicos de aprendizaje, anualmente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Gestión_Escolar_2_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mejoramiento de la gestión escolar en las instituciones educativas oficiales de los municipios no certificados del departamenteo del valle del cauca.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Meta de Producto 2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Asitir técnicamente a 149 instituciones educativas oficiales  de los municipios no certificados del valle del cauca, en gestion escolar, para el mejoramientos insiticuional anualmente</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Transversales_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fortalecimiento de los proyectos pedagógicos transversales en las instituciones educativas oficiales de los 34 municipios no certificados del Valle del Cauca</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Asitir técnicamente a 149 instituciones educativas oficiales en procesos de convivencia escolar, la cátedra de estudios afrocolombianos, derechos humanos,  derechos sexuales y reproductivos, resolución pacífica de conflictos, cpmstricción de paz, proyecto educativo vial, proyecto ambiental escolar- PREAE y uso adecuado del tiempo libre en los  34 municipios no certificados del valle del cauca, anualmente</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Convivencia_2_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fortalecimiento de la convivencia escolar, proyectos pedagógicos trasversales y el desarrollo integral y armónico de niños, niñas y adolecentes en las instituciones educativas oficiales, de los municipios no certificados del valle del cauca. 
+</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Asitir técnicamente a 149 instituciones educativas oficiales en procesos de convivencia escolar, la cátedra de estudios afrocolombianos, derechos humanos,  derechos sexuales y reproductivos, resolución pacífica de conflictos, cpmstricción de paz, proyecto educativo vial, proyecto ambiental escolar- PREAE y uso adecuado del tiempo libre en los  34 municipios no certificados del valle del cauca, anualmente</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PILEO_2_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Actualización para el fortalecimiento de los Proyectos Instituciones de Lectura, Escritura y Oralidad-PILEO- de instituciones educativas
+oficiales de los 34 municipios no certificados del Valle del Cauca</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Disponer en 149 instituciones educativas oficiales materiales que promueven la lectura, la escritra, la escritura y l oralidad, para desarrollar competencia municativas , anualmente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ed_Inicial_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Apoyo a estrategias para una Educación Inicial de Calidad en el nivel Preescolar "Primero las niñas y los niños" en el Valle del Cauca.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Orientar a las 149 instituciones educativas oficiales en la implementacion del ciclo2, de la educación inicial (grado prejardín, jardín y transición) en los municipios no certificados del valle del cauca, durante el periodo de gobierno</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ed_Inicial_2_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fortalecimiento de las  condiciiones de calidad para la prestación del servicio educativo en el ciclo dos de la educación inicial grados prejardín, jardin y transición en las 149 instituciones educativas oficiales de etf valle del cauca </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Orientar a las 149 instituciones educativas oficiales en la implementacion del ciclo2, de la educación inicial (grado prejardín, jardín y transición) en los municipios no certificados del valle del cauca, durante el periodo de gobierno</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Normales_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fortalecimiento de las escuelas normales superiores, mejorando los planes de área y de aula y formación en pedagogía y didáctica a directivos docentes y docentes de los municipios no certificados del Departamento del Valle del Cauca</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Capacitar a 1,500 docentes de preescolar, básica y media en estrategias de mejoramiento de sus capacidades  en procesos pedagógicos, didácticos, investigativos, tecnológicos y digitales, de (145) instituciones educativas oficiales y las cuatro (4) escuelas normales superiores de los municipos no certificados del valle del cauca, durante el periodo de gobierno.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Normales_2_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consolidación de los procesos curriculares y académicos de las escuelas normales en el departamento del valle del cauca. </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Capacitar a 1,500 docentes de preescolar, básica y media en estrategias de mejoramiento de sus capacidades  en procesos pedagógicos, didácticos, investigativos, tecnológicos y digitales, de (145) instituciones educativas oficiales y las cuatro (4) escuelas normales superiores de los municipos no certificados del valle del cauca, durante el periodo de gobierno.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PEER_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Fortalecimiento de las estrategias pedagógicas propias del Programa Especial de Educación Rural en el Valle del Cauca</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Beneficiar a 35 instituciones educativas oficiales con proyectos pedagógicos productivos, realizando asistencia técnica con enfonque y tecnología STEAM, en los municipios no certificados del valle del cauca, durante el periodo de gobierno</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Emprendimiento_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Fortalecimiento de los proyecto pedagógicos productivos, emprendimiento y asociaciones de futuros agricultores en las instituciones educativas oficiales de los municipios no certificados del valle del cauca.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Meta de Producto 1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Dotar 32 ambientes de aprendizaje vinculados a las asociaciones de futuros agricultores - AFA durante el preioro de gobierno</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Emprendimiento_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Fortalecimiento de los proyecto pedagógicos productivos, emprendimiento y asociaciones de futuros agricultores en las instituciones educativas oficiales de los municipios no certificados del valle del cauca.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Meta de Producto 2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Asesorar en 149 instituciones educativas oficiales la cultura del emprendiemitno y la educación financiera, con enfoque de desarrollo sostenible, anualmente</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Emprendimiento_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fortalecimiento de los proyecto pedagógicos productivos, emprendimiento y asociaciones de futuros agricultores en las instituciones educativas oficiales de los municipios no certificados del valle del cauca.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Meta de Producto 3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Beneficiar a 35 instituciones educativas oficiales con proyectos pedagógicos productivos, realizando asistencia técnica con enfonque y tecnología STEAM, en los municipios no certificados del valle del cauca, durante el periodo de gobierno</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PILEO_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Actualización para el fortalecimiento de los Proyectos Instituciones de Lectura, Escritura y Oralidad-PILEO- de instituciones educativas oficiales de los 34 municipios no certificados del Valle del Cauca</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Disponer en las 1479 instituciones educativas oficiales materiaels que promuevan la lectura, la escitura y la oralidad, para  desarrollar competencias comunicativas anualmente</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Emprendimiento_2_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Consolidación de los procesos académicos que ayuden a los estudiantes a emprender, innovar y crear en las Instituciones educativas oficiales
+del Valle del Cauca</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Asesorar en 149 instituciones educativas oficiales la cultura del emprendiemitno y la educación financiera, con enfoque de desarrollo sostenible, anualmente</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Pruebas_SABER_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Apoyo pedagógico para el mejoramiento de la calidad educativa en los establecimientos educativos oficiales de los 34 municipios no certificados del Valle del Cauca</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Capacotar a 6.650 estudiantes para mejorar el desempeño en las pruebas saber, de las instituciones educativas oficiales de los municipios no certificados del valle del cauca  anualmente</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Familia_Escuela_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Consolidación de la aliana familia-escuela para el desarrollo integral de niños, niñas y adolecentes en las 149 IEO de los municipios no certificados del valle del cauca.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ATENDER EN LAS 149 INSTITUCIONES EDUCATIVAS OFICIALES, LAS ESCUELAS DE PADRES, MADRES DE FAMILIA Y CUIDADORES, EN EL MARCO DE LOS LINEAMIENTOS DE LA LEY 2025 DE 2020, EN LOS MUNICIPIOS NO CERTIFICADOS DEL VALLE DEL CAUCA, ANUALMENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TIC_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FORTALECIMIENTO DE LOS PROCESOS DE ENSEÑANZA Y APRENDIZAJE CON EL USO DIDÁCTICO DE LAS TECNOLOGÍAS DE LA INFORMACIÓN Y COMUNICACIÓN EN LAS INSTITUCIONES EDUCATIVAS DEL VALLE DEL CAUCA.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Realizar 1.500 nuevas conexiones a internet durante el periodo de gobierno</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TIC_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FORTALECIMIENTO DE LOS PROCESOS DE ENSEÑANZA Y APRENDIZAJE CON EL USO DIDÁCTICO DE LAS TECNOLOGÍAS DE LA INFORMACIÓN Y COMUNICACIÓN EN LAS INSTITUCIONES EDUCATIVAS DEL VALLE DEL CAUCA.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Marener en funcionamiento las 100 zonas wiffi en el departamento del valle del cauca duraten el periodo de gobierno</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Cátedra_Afro_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Fortalecimiento de la catedra de estudios afrocolombianos para su implementación en los 34 municipios no certificados del Valle del Cauca.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Orientar 2 modelos etnoeducativos (1 sistema educativo indígena propio y 1 modelo etnoeducativo PEC, en el marco de la normatividad afro) en las instituciones educativas oficiales de los municipios no certificados del valle del cauca, durante el periodo de gobierno</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Cátedra_Afro_2_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fortalecimiento de la etnoeducación,  en las comunidades negras, afrocolombianas, raizales y palenqueras, NARP de los municipios no certificados del valle del cauca. </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Orientar 2 modelos etnoeducativos (1 sistema educativo indígena propio y 1 modelo etnoeducativo PEC, en el marco de la normatividad afro) en las instituciones educativas oficiales de los municipios no certificados del valle del cauca, durante el periodo de gobierno</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SEIP_Pro_2024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Apoyo al sistema educativo indígena propio seip en las comunidades educativas indígenas de los municipios no certificados del valle del cauca</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Orientar 2 modelos etnoeducativos (1 sistema educativo indígena propio y 1 modelo etnoeducativo PEC, en el marco de la normatividad afro) en las instituciones educativas oficiales de los municipios no certificados del valle del cauca, durante el periodo de gobierno</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>